--- a/data/Impact Intelligence - Project Contractor Sample.xlsx
+++ b/data/Impact Intelligence - Project Contractor Sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="159">
   <si>
     <t xml:space="preserve">This is the second step of the job application for the Contractor position at Impact Intelligence. There are two small tasks you will need to complete that will help us evaluate your skills in basic Excel functions and conceptual understanding and summarization in English.
 Please upload the finished Excel sheet back to the GoogleForm before submitting.</t>

--- a/data/Impact Intelligence - Project Contractor Sample.xlsx
+++ b/data/Impact Intelligence - Project Contractor Sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t xml:space="preserve">This is the second step of the job application for the Contractor position at Impact Intelligence. There are two small tasks you will need to complete that will help us evaluate your skills in basic Excel functions and conceptual understanding and summarization in English.
 Please upload the finished Excel sheet back to the GoogleForm before submitting.</t>
@@ -44847,7 +44847,7 @@
         <v>141</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1633</v>
+        <v>0.0569</v>
       </c>
       <c r="C2" t="n">
         <v>0.7657323232</v>
@@ -44864,7 +44864,7 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1433</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>0.4889069264</v>
@@ -44881,7 +44881,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1146</v>
+        <v>0.04</v>
       </c>
       <c r="C4" t="n">
         <v>0.6687745597</v>
@@ -44898,7 +44898,7 @@
         <v>139</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1146</v>
+        <v>0.04</v>
       </c>
       <c r="C5" t="n">
         <v>0.4521037582</v>
@@ -44915,7 +44915,7 @@
         <v>142</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0917</v>
+        <v>0.032</v>
       </c>
       <c r="C6" t="n">
         <v>0.09722222222</v>
